--- a/templates/report1.xlsx
+++ b/templates/report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\foreigners_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6938705F-01A2-4F4C-8C58-7014742121CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D22D660-4EEE-4D47-AFAD-190D6696E4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -198,24 +198,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -245,21 +233,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,69 +534,70 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="62.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="2:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
